--- a/Data/partial_mapping.xlsx
+++ b/Data/partial_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim/Dropbox/University/VicView/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim/Documents/Collective-Access-A-Walkthrough/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>Rule type</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>collectionSplitter</t>
-  </si>
-  <si>
-    <t>{"relationshipType": "ownership", "entityType" : "organization"}</t>
   </si>
   <si>
     <t>{"relationshipType": "artist", "entityType" : "individual", "delimiter": " "}</t>
@@ -728,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -856,7 +853,7 @@
         <v>61</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -894,17 +891,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -913,24 +910,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="1"/>
@@ -973,7 +964,7 @@
         <v>82</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -990,15 +981,15 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1091,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1112,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1171,15 +1162,15 @@
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1323,7 +1314,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>

--- a/Data/partial_mapping.xlsx
+++ b/Data/partial_mapping.xlsx
@@ -92,9 +92,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Vernon mapping</t>
-  </si>
-  <si>
     <t>Human readable name of the mapping</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
   </si>
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>VM</t>
   </si>
   <si>
     <t>Alphanumeric code of the mapping</t>
@@ -346,6 +340,12 @@
 "idno": "^1"
 }
 }</t>
+  </si>
+  <si>
+    <t>Partial mapping</t>
+  </si>
+  <si>
+    <t>MAP01</t>
   </si>
 </sst>
 </file>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,7 +792,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -803,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="7"/>
@@ -813,7 +813,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="64" x14ac:dyDescent="0.2">
@@ -845,21 +845,21 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -870,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -880,7 +880,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="336" x14ac:dyDescent="0.2">
@@ -891,23 +891,23 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="1"/>
       <c r="K7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -926,7 +926,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -945,7 +945,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="64" x14ac:dyDescent="0.2">
@@ -956,21 +956,21 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="160" x14ac:dyDescent="0.2">
@@ -981,21 +981,21 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="1"/>
       <c r="K12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1071,7 +1071,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1092,7 +1092,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1113,7 +1113,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1151,7 +1151,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="K19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="128" x14ac:dyDescent="0.2">
@@ -1162,15 +1162,15 @@
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1253,13 +1253,13 @@
         <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
@@ -1273,16 +1273,16 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="5"/>
@@ -1296,16 +1296,16 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="5"/>
@@ -1319,16 +1319,16 @@
         <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1342,16 +1342,16 @@
         <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1365,16 +1365,16 @@
         <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1388,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
@@ -1409,13 +1409,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1430,13 +1430,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1451,13 +1451,13 @@
         <v>20</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1472,16 +1472,16 @@
         <v>20</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
